--- a/players.xlsx
+++ b/players.xlsx
@@ -1,18 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC78372-2EA3-4144-93BD-A46F7A010582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Stats"/>
+    <sheet name="Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stats!$A$1:$AB$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stats!$A$1:$AH$36</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -496,7 +514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -511,7 +529,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -525,7 +543,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -538,7 +556,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF1155cc"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -563,27 +581,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf8f9fa"/>
+        <fgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4cccc"/>
+        <fgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9ead3"/>
+        <fgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -597,16 +615,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,116 +639,152 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -741,10 +795,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -782,71 +836,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,7 +928,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -897,11 +951,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -910,13 +964,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -926,7 +980,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -935,7 +989,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -944,7 +998,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -952,10 +1006,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1020,55 +1074,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="31" width="52.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="31" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="31" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="31" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="31" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="30" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="30" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="32" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="30" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="30" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="30" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="30" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="30" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="32" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="30" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="33" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="30" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="33" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="33" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="33" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="33" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="33" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="31" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,133 +1227,117 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>6584074</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>491850</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11">
-        <v>9930647095</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>7738847075</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J2" s="11">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="K2" s="11">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="L2" s="11">
         <v>0</v>
       </c>
       <c r="M2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
         <v>6</v>
       </c>
-      <c r="P2" s="11">
-        <v>32</v>
-      </c>
       <c r="Q2" s="16">
-        <v>13.13</v>
+        <v>9.6</v>
       </c>
       <c r="R2" s="17"/>
-      <c r="S2" s="11">
-        <v>15</v>
-      </c>
+      <c r="S2" s="17"/>
       <c r="T2" s="11">
-        <v>23</v>
-      </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>301</v>
-      </c>
-      <c r="W2" s="18">
-        <v>45353</v>
-      </c>
-      <c r="X2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>14.27</v>
-      </c>
-      <c r="Z2" s="16">
-        <v>8.47</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="20"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="20">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>1</v>
+      </c>
       <c r="AE2" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="20">
         <v>1</v>
       </c>
-      <c r="AG2" s="20">
-        <v>1</v>
-      </c>
+      <c r="AG2" s="20"/>
       <c r="AH2" s="15" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>27378071</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>1450478</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11">
-        <v>9819153558</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="22" t="s">
+        <v>9619832985</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>44</v>
+      <c r="G3" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="11">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J3" s="11">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K3" s="11">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L3" s="11">
         <v>0</v>
@@ -1307,86 +1346,88 @@
         <v>0</v>
       </c>
       <c r="N3" s="11">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O3" s="11">
         <v>2</v>
       </c>
       <c r="P3" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="16">
-        <v>11.5</v>
+        <v>6.81</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T3" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
       </c>
       <c r="V3" s="11">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2</v>
+      </c>
       <c r="Y3" s="19">
-        <v>3.33</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>0</v>
+        <v>12.75</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>5.18</v>
       </c>
       <c r="AA3" s="20">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="20"/>
+      <c r="AC3" s="20">
+        <v>8</v>
+      </c>
       <c r="AD3" s="20"/>
-      <c r="AE3" s="20">
-        <v>1</v>
-      </c>
+      <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
       <c r="AH3" s="15" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>24991372</v>
+        <v>2182618</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11">
-        <v>9136384482</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="14" t="s">
+        <v>9619380819</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J4" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K4" s="11">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -1395,322 +1436,328 @@
         <v>0</v>
       </c>
       <c r="N4" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="16">
-        <v>1.17</v>
+        <v>10.67</v>
       </c>
       <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="11">
+        <v>14</v>
+      </c>
       <c r="T4" s="11">
-        <v>0</v>
-      </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <v>62</v>
+      </c>
+      <c r="W4" s="18">
+        <v>45294</v>
+      </c>
+      <c r="X4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>4.29</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>32</v>
+      </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="20"/>
       <c r="AE4" s="20">
         <v>1</v>
       </c>
-      <c r="AF4" s="20"/>
+      <c r="AF4" s="20">
+        <v>2</v>
+      </c>
       <c r="AG4" s="20"/>
       <c r="AH4" s="15" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>14897925</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>50</v>
+        <v>3421055</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D5" s="11">
-        <v>9004170835</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="14" t="s">
+        <v>9699286886</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>37</v>
+      <c r="G5" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="11">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J5" s="11">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K5" s="11">
-        <v>421</v>
+        <v>22</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="11">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="O5" s="11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P5" s="11">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="16">
-        <v>17.54</v>
+        <v>3.67</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="T5" s="11">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U5" s="11">
         <v>0</v>
       </c>
       <c r="V5" s="11">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="W5" s="18">
-        <v>45414</v>
+        <v>45353</v>
       </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="19">
-        <v>10.96</v>
+        <v>6.45</v>
       </c>
       <c r="Z5" s="16">
-        <v>6.9</v>
+        <v>7.33</v>
       </c>
       <c r="AA5" s="20">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="20">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="20"/>
       <c r="AE5" s="20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="15" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>7930954</v>
+        <v>3986537</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="D6" s="11">
-        <v>8700245079</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>57</v>
+        <v>7977327175</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="11">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J6" s="11">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="K6" s="11">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="11">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O6" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P6" s="11">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="16">
-        <v>98</v>
+        <v>13.97</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T6" s="11">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U6" s="11">
         <v>0</v>
       </c>
       <c r="V6" s="11">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="X6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>12.04</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>8.5</v>
+      </c>
       <c r="AA6" s="20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
       <c r="AH6" s="15" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="24">
-        <v>33613925</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="24">
-        <v>8976608320</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24">
-        <v>0</v>
-      </c>
-      <c r="T7" s="24">
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>0</v>
-      </c>
-      <c r="V7" s="24">
-        <v>0</v>
-      </c>
-      <c r="W7" s="24">
-        <v>0</v>
-      </c>
-      <c r="X7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="27" t="s">
-        <v>62</v>
+    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>4188251</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="35">
+        <v>9699945464</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="35">
+        <v>15</v>
+      </c>
+      <c r="J7" s="35">
+        <v>6</v>
+      </c>
+      <c r="K7" s="35">
+        <v>4</v>
+      </c>
+      <c r="L7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <v>0</v>
+      </c>
+      <c r="N7" s="35">
+        <v>1</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="35">
+        <v>9</v>
+      </c>
+      <c r="T7" s="35">
+        <v>13</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0</v>
+      </c>
+      <c r="V7" s="35">
+        <v>159</v>
+      </c>
+      <c r="W7" s="42">
+        <v>45324</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="43">
+        <v>12.23</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>8.67</v>
+      </c>
+      <c r="AA7" s="44">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="39" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4922490</v>
       </c>
@@ -1778,7 +1825,7 @@
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="19">
-        <v>8.88</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="Z8" s="16">
         <v>7.05</v>
@@ -1806,212 +1853,202 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="24">
-        <v>33636223</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="24">
-        <v>8356037560</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="26" t="s">
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>6584074</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="35">
+        <v>9930647095</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <v>0</v>
-      </c>
-      <c r="X9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="27" t="s">
-        <v>70</v>
+      <c r="G9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="35">
+        <v>40</v>
+      </c>
+      <c r="J9" s="35">
+        <v>29</v>
+      </c>
+      <c r="K9" s="35">
+        <v>302</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1</v>
+      </c>
+      <c r="N9" s="35">
+        <v>35</v>
+      </c>
+      <c r="O9" s="35">
+        <v>6</v>
+      </c>
+      <c r="P9" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>13.13</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="35">
+        <v>15</v>
+      </c>
+      <c r="T9" s="35">
+        <v>23</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0</v>
+      </c>
+      <c r="V9" s="35">
+        <v>301</v>
+      </c>
+      <c r="W9" s="42">
+        <v>45353</v>
+      </c>
+      <c r="X9" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="43">
+        <v>14.27</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AA9" s="44">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="44">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>2182618</v>
+        <v>7930954</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D10" s="11">
-        <v>9619380819</v>
+        <v>8700245079</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K10" s="11">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L10" s="11">
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="O10" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P10" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="16">
-        <v>10.67</v>
+        <v>98</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T10" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>
       </c>
       <c r="V10" s="11">
-        <v>62</v>
-      </c>
-      <c r="W10" s="18">
-        <v>45294</v>
-      </c>
-      <c r="X10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>4.29</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="20">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="16"/>
       <c r="AC10" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20">
         <v>1</v>
       </c>
-      <c r="AF10" s="20">
-        <v>2</v>
-      </c>
+      <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>19930900</v>
+        <v>9752836</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11">
-        <v>8652040789</v>
+        <v>9833790313</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>36</v>
@@ -2024,197 +2061,201 @@
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="11">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J11" s="11">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="K11" s="11">
-        <v>555</v>
+        <v>95</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O11" s="11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="P11" s="11">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="16">
-        <v>8.67</v>
+        <v>7.31</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T11" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="11">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="W11" s="18">
-        <v>45415</v>
+        <v>45476</v>
       </c>
       <c r="X11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="19">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="Z11" s="16">
-        <v>6.33</v>
+        <v>7.17</v>
       </c>
       <c r="AA11" s="20">
         <v>102</v>
       </c>
       <c r="AB11" s="16"/>
       <c r="AC11" s="20">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="20"/>
       <c r="AE11" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="20"/>
       <c r="AG11" s="20"/>
       <c r="AH11" s="15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>14328891</v>
+        <v>10613125</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D12" s="11">
-        <v>7506371737</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="22" t="s">
+        <v>7666693096</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="11">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J12" s="11">
-        <v>55</v>
-      </c>
-      <c r="K12" s="17">
-        <v>668</v>
+        <v>34</v>
+      </c>
+      <c r="K12" s="11">
+        <v>131</v>
       </c>
       <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>18</v>
+      </c>
+      <c r="O12" s="11">
         <v>4</v>
       </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-      <c r="N12" s="17">
-        <v>73</v>
-      </c>
-      <c r="O12" s="17">
-        <v>25</v>
-      </c>
-      <c r="P12" s="17">
-        <v>68</v>
+      <c r="P12" s="11">
+        <v>11</v>
       </c>
       <c r="Q12" s="16">
-        <v>19.09</v>
+        <v>4.68</v>
       </c>
       <c r="R12" s="17"/>
-      <c r="S12" s="17">
-        <v>44</v>
+      <c r="S12" s="11">
+        <v>10</v>
       </c>
       <c r="T12" s="11">
-        <v>59</v>
-      </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17">
-        <v>891</v>
-      </c>
-      <c r="W12" s="28">
-        <v>45385</v>
-      </c>
-      <c r="X12" s="17">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>11.57</v>
+        <v>21</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>225</v>
+      </c>
+      <c r="W12" s="18">
+        <v>45293</v>
+      </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="19">
+        <v>11.44</v>
       </c>
       <c r="Z12" s="16">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="AA12" s="20">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="16"/>
       <c r="AC12" s="20">
-        <v>22</v>
-      </c>
-      <c r="AD12" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>1</v>
+      </c>
       <c r="AE12" s="20">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="20">
         <v>3</v>
       </c>
-      <c r="AF12" s="20"/>
       <c r="AG12" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="15" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>9752836</v>
+        <v>11397567</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="D13" s="11">
-        <v>9833790313</v>
-      </c>
-      <c r="E13" s="14" t="s">
+        <v>8657424691</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="11">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J13" s="11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K13" s="11">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -2223,71 +2264,69 @@
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O13" s="11">
         <v>2</v>
       </c>
       <c r="P13" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="16">
-        <v>7.31</v>
+        <v>6.89</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T13" s="11">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U13" s="11">
         <v>1</v>
       </c>
       <c r="V13" s="11">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="W13" s="18">
-        <v>45476</v>
-      </c>
-      <c r="X13" s="11">
-        <v>2</v>
-      </c>
+        <v>45324</v>
+      </c>
+      <c r="X13" s="11"/>
       <c r="Y13" s="19">
-        <v>12.2</v>
+        <v>9.93</v>
       </c>
       <c r="Z13" s="16">
-        <v>7.17</v>
+        <v>7.57</v>
       </c>
       <c r="AA13" s="20">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AB13" s="16"/>
       <c r="AC13" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="20"/>
       <c r="AE13" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20"/>
       <c r="AH13" s="15" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>21442733</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>83</v>
+        <v>11630439</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D14" s="11">
-        <v>9372137233</v>
+        <v>8369057760</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>85</v>
@@ -2303,10 +2342,10 @@
         <v>12</v>
       </c>
       <c r="J14" s="11">
-        <v>7</v>
-      </c>
-      <c r="K14" s="11">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="K14" s="17">
+        <v>21</v>
       </c>
       <c r="L14" s="11">
         <v>0</v>
@@ -2314,46 +2353,44 @@
       <c r="M14" s="11">
         <v>0</v>
       </c>
-      <c r="N14" s="11">
-        <v>15</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>7</v>
+      <c r="N14" s="17">
+        <v>8</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17">
+        <v>1</v>
       </c>
       <c r="Q14" s="16">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="R14" s="17"/>
-      <c r="S14" s="11">
-        <v>6</v>
+      <c r="S14" s="17">
+        <v>1</v>
       </c>
       <c r="T14" s="11">
-        <v>8</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <v>103</v>
-      </c>
-      <c r="W14" s="18">
-        <v>45352</v>
-      </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="19">
-        <v>12.88</v>
+        <v>4</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17">
+        <v>42</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="16">
+        <v>10.5</v>
       </c>
       <c r="Z14" s="17">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AA14" s="20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="16"/>
-      <c r="AC14" s="20"/>
+      <c r="AC14" s="20">
+        <v>3</v>
+      </c>
       <c r="AD14" s="20"/>
       <c r="AE14" s="20">
         <v>1</v>
@@ -2361,132 +2398,136 @@
       <c r="AF14" s="20"/>
       <c r="AG14" s="20"/>
       <c r="AH14" s="15" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>33619223</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>88</v>
+        <v>12757896</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D15" s="11">
-        <v>9987572457</v>
+        <v>8169934821</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="11">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="11">
         <v>39</v>
       </c>
-      <c r="K15" s="17">
-        <v>212</v>
-      </c>
       <c r="L15" s="11">
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <v>1</v>
-      </c>
-      <c r="N15" s="17">
-        <v>37</v>
-      </c>
-      <c r="O15" s="17">
-        <v>4</v>
-      </c>
-      <c r="P15" s="17">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>19</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>5</v>
       </c>
       <c r="Q15" s="16">
-        <v>6.84</v>
+        <v>39</v>
       </c>
       <c r="R15" s="17"/>
-      <c r="S15" s="17">
-        <v>13</v>
+      <c r="S15" s="11">
+        <v>6</v>
       </c>
       <c r="T15" s="11">
-        <v>26</v>
-      </c>
-      <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="V15" s="17">
-        <v>289</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="16">
-        <v>11.12</v>
+        <v>5</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>59</v>
+      </c>
+      <c r="W15" s="18">
+        <v>45414</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="19">
+        <v>11.8</v>
       </c>
       <c r="Z15" s="17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="20">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="AB15" s="16"/>
       <c r="AC15" s="20">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="20">
+        <v>1</v>
+      </c>
       <c r="AE15" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="20">
+        <v>1</v>
+      </c>
       <c r="AH15" s="15" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>14710181</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>13853329</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D16" s="11">
-        <v>8080133476</v>
+        <v>7977649143</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J16" s="11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K16" s="11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L16" s="11">
         <v>0</v>
@@ -2495,176 +2536,178 @@
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="16">
-        <v>2.56</v>
+        <v>14.5</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T16" s="11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U16" s="11">
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <v>167</v>
-      </c>
-      <c r="W16" s="18">
-        <v>45353</v>
+        <v>31</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="19">
-        <v>16.43</v>
-      </c>
-      <c r="Z16" s="16">
-        <v>4.36</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="Z16" s="17"/>
       <c r="AA16" s="20">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="16"/>
       <c r="AC16" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="20">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="20"/>
       <c r="AH16" s="15" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>21987171</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>95</v>
+        <v>14328891</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D17" s="11">
-        <v>9769539114</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="14" t="s">
+        <v>7506371737</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="11">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="K17" s="17">
+        <v>668</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>14</v>
-      </c>
-      <c r="O17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="17">
+        <v>73</v>
+      </c>
+      <c r="O17" s="17">
+        <v>25</v>
+      </c>
+      <c r="P17" s="17">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>19.09</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
+        <v>44</v>
+      </c>
+      <c r="T17" s="11">
+        <v>59</v>
+      </c>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17">
+        <v>891</v>
+      </c>
+      <c r="W17" s="28">
+        <v>45385</v>
+      </c>
+      <c r="X17" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>11.57</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="AA17" s="20">
+        <v>206</v>
+      </c>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="20">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20">
         <v>3</v>
       </c>
-      <c r="P17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>12.33</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="11">
-        <v>5</v>
-      </c>
-      <c r="T17" s="11">
-        <v>10</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
-      </c>
-      <c r="V17" s="11">
-        <v>156</v>
-      </c>
-      <c r="W17" s="18">
-        <v>45292</v>
-      </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="19">
-        <v>16.71</v>
-      </c>
-      <c r="Z17" s="16">
-        <v>11.2</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>16</v>
-      </c>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
+      <c r="AG17" s="20">
+        <v>4</v>
+      </c>
       <c r="AH17" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>1450478</v>
+        <v>14710181</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D18" s="11">
-        <v>9619832985</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>37</v>
+        <v>8080133476</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11">
         <v>23</v>
       </c>
       <c r="J18" s="11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K18" s="11">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="L18" s="11">
         <v>0</v>
@@ -2673,333 +2716,343 @@
         <v>0</v>
       </c>
       <c r="N18" s="11">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O18" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <v>6.81</v>
+        <v>2.56</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T18" s="11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U18" s="11">
         <v>0</v>
       </c>
       <c r="V18" s="11">
-        <v>187</v>
-      </c>
-      <c r="W18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="X18" s="11">
-        <v>2</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="W18" s="18">
+        <v>45353</v>
+      </c>
+      <c r="X18" s="11"/>
       <c r="Y18" s="19">
-        <v>12.75</v>
+        <v>16.43</v>
       </c>
       <c r="Z18" s="16">
-        <v>5.18</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AA18" s="20">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AB18" s="16"/>
       <c r="AC18" s="20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
+      <c r="AF18" s="20">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="20">
+        <v>1</v>
+      </c>
       <c r="AH18" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>491850</v>
+        <v>14897925</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11">
-        <v>7738847075</v>
-      </c>
-      <c r="E19" s="22" t="s">
+        <v>9004170835</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J19" s="11">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="K19" s="11">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" s="11">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="O19" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P19" s="11">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="16">
-        <v>9.6</v>
+        <v>17.54</v>
       </c>
       <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="S19" s="11">
+        <v>20</v>
+      </c>
       <c r="T19" s="11">
-        <v>0</v>
-      </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>252</v>
+      </c>
+      <c r="W19" s="18">
+        <v>45414</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="19">
+        <v>10.96</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>60</v>
+      </c>
       <c r="AB19" s="16"/>
       <c r="AC19" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="20">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="20">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
       <c r="AH19" s="15" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>19930853</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>105</v>
+        <v>19070494</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D20" s="11">
-        <v>8879176851</v>
+        <v>9833320545</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J20" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="11">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="L20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" s="11">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O20" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P20" s="11">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="16">
-        <v>5.8</v>
+        <v>23.11</v>
       </c>
       <c r="R20" s="17"/>
       <c r="S20" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T20" s="11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="11">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="W20" s="18">
-        <v>45353</v>
+        <v>45293</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="19">
-        <v>12.47</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>9</v>
+        <v>9.27</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>8.25</v>
       </c>
       <c r="AA20" s="20">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AB20" s="16"/>
       <c r="AC20" s="20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="AF20" s="20">
+        <v>2</v>
+      </c>
       <c r="AG20" s="20"/>
       <c r="AH20" s="15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>19930951</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>108</v>
+        <v>19930853</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" s="11">
-        <v>9619053388</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="22" t="s">
+        <v>8879176851</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="11">
         <v>28</v>
       </c>
       <c r="J21" s="11">
+        <v>21</v>
+      </c>
+      <c r="K21" s="11">
+        <v>116</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
         <v>24</v>
       </c>
-      <c r="K21" s="11">
-        <v>219</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1</v>
-      </c>
-      <c r="N21" s="11">
-        <v>48</v>
-      </c>
       <c r="O21" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P21" s="11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="16">
-        <v>13.69</v>
+        <v>5.8</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T21" s="11">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="11">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="W21" s="18">
         <v>45353</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="19">
-        <v>9.73</v>
-      </c>
-      <c r="Z21" s="16">
-        <v>7.76</v>
+        <v>12.47</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>9</v>
       </c>
       <c r="AA21" s="20">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="AB21" s="16"/>
       <c r="AC21" s="20">
         <v>12</v>
       </c>
-      <c r="AD21" s="20">
-        <v>2</v>
-      </c>
+      <c r="AD21" s="20"/>
       <c r="AE21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="20">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>10613125</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>111</v>
+        <v>19930900</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11">
-        <v>7666693096</v>
+        <v>8652040789</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>36</v>
@@ -3012,167 +3065,169 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="11">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J22" s="11">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="K22" s="11">
-        <v>131</v>
+        <v>555</v>
       </c>
       <c r="L22" s="11">
         <v>0</v>
       </c>
       <c r="M22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="11">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O22" s="11">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P22" s="11">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="16">
-        <v>4.68</v>
+        <v>8.67</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="11">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="T22" s="11">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="U22" s="11">
         <v>0</v>
       </c>
       <c r="V22" s="11">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="W22" s="18">
-        <v>45293</v>
-      </c>
-      <c r="X22" s="11"/>
+        <v>45415</v>
+      </c>
+      <c r="X22" s="11">
+        <v>1</v>
+      </c>
       <c r="Y22" s="19">
-        <v>11.44</v>
+        <v>12.29</v>
       </c>
       <c r="Z22" s="16">
-        <v>11.8</v>
+        <v>6.33</v>
       </c>
       <c r="AA22" s="20">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AB22" s="16"/>
       <c r="AC22" s="20">
-        <v>7</v>
-      </c>
-      <c r="AD22" s="20">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AD22" s="20"/>
       <c r="AE22" s="20">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="20">
         <v>3</v>
       </c>
-      <c r="AG22" s="20">
-        <v>2</v>
-      </c>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
       <c r="AH22" s="15" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>13853329</v>
+        <v>19930951</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D23" s="11">
-        <v>7977649143</v>
+        <v>9619053388</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="11">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J23" s="11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K23" s="11">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="L23" s="11">
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="11">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O23" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P23" s="11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="16">
-        <v>14.5</v>
+        <v>13.69</v>
       </c>
       <c r="R23" s="17"/>
       <c r="S23" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T23" s="11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <v>31</v>
-      </c>
-      <c r="W23" s="23" t="s">
-        <v>116</v>
+        <v>214</v>
+      </c>
+      <c r="W23" s="18">
+        <v>45353</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="19">
-        <v>15.5</v>
-      </c>
-      <c r="Z23" s="17"/>
+        <v>9.73</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>7.76</v>
+      </c>
       <c r="AA23" s="20">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="AB23" s="16"/>
       <c r="AC23" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="AD23" s="20">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="20">
+        <v>1</v>
+      </c>
       <c r="AF23" s="20">
         <v>1</v>
       </c>
       <c r="AG23" s="20"/>
       <c r="AH23" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>20754987</v>
       </c>
@@ -3266,99 +3321,95 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>19070494</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>121</v>
+        <v>21442733</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D25" s="11">
-        <v>9833320545</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>37</v>
+        <v>9372137233</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="11">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J25" s="11">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K25" s="11">
-        <v>416</v>
+        <v>49</v>
       </c>
       <c r="L25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N25" s="11">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="O25" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P25" s="11">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="16">
-        <v>23.11</v>
+        <v>7</v>
       </c>
       <c r="R25" s="17"/>
       <c r="S25" s="11">
+        <v>6</v>
+      </c>
+      <c r="T25" s="11">
         <v>8</v>
       </c>
-      <c r="T25" s="11">
-        <v>11</v>
-      </c>
       <c r="U25" s="11">
         <v>0</v>
       </c>
       <c r="V25" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W25" s="18">
-        <v>45293</v>
+        <v>45352</v>
       </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="19">
-        <v>9.27</v>
-      </c>
-      <c r="Z25" s="16">
-        <v>8.25</v>
+        <v>12.88</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>8</v>
       </c>
       <c r="AA25" s="20">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB25" s="16"/>
-      <c r="AC25" s="20">
-        <v>6</v>
-      </c>
+      <c r="AC25" s="20"/>
       <c r="AD25" s="20"/>
       <c r="AE25" s="20">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="20">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="15" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>21465213</v>
       </c>
@@ -3444,127 +3495,123 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>27592031</v>
+        <v>21987171</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D27" s="11">
-        <v>9930129547</v>
+        <v>9769539114</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" s="11">
+        <v>5</v>
+      </c>
+      <c r="K27" s="11">
+        <v>37</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
         <v>14</v>
       </c>
-      <c r="K27" s="11">
-        <v>130</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>1</v>
-      </c>
-      <c r="N27" s="11">
-        <v>34</v>
-      </c>
       <c r="O27" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P27" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="16">
-        <v>9.29</v>
+        <v>12.33</v>
       </c>
       <c r="R27" s="17"/>
       <c r="S27" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U27" s="11">
         <v>0</v>
       </c>
       <c r="V27" s="11">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="W27" s="18">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="19">
-        <v>8.33</v>
-      </c>
-      <c r="Z27" s="17">
-        <v>18</v>
+        <v>16.71</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>11.2</v>
       </c>
       <c r="AA27" s="20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB27" s="16"/>
-      <c r="AC27" s="20">
-        <v>3</v>
-      </c>
+      <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
-      <c r="AE27" s="20">
-        <v>1</v>
-      </c>
+      <c r="AE27" s="20"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="15" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>3421055</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>130</v>
+        <v>24741322</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D28" s="11">
-        <v>9699286886</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>44</v>
+        <v>8097299626</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J28" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L28" s="11">
         <v>0</v>
@@ -3573,88 +3620,86 @@
         <v>0</v>
       </c>
       <c r="N28" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O28" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="R28" s="17"/>
       <c r="S28" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T28" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U28" s="11">
         <v>0</v>
       </c>
       <c r="V28" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W28" s="18">
-        <v>45353</v>
+        <v>45506</v>
       </c>
       <c r="X28" s="11"/>
       <c r="Y28" s="19">
-        <v>6.45</v>
-      </c>
-      <c r="Z28" s="16">
-        <v>7.33</v>
+        <v>19.5</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>8</v>
       </c>
       <c r="AA28" s="20">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AB28" s="16"/>
       <c r="AC28" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="20"/>
-      <c r="AE28" s="20">
-        <v>1</v>
-      </c>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>24741322</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>133</v>
+        <v>24991372</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="D29" s="11">
-        <v>8097299626</v>
+        <v>9136384482</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K29" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29" s="11">
         <v>0</v>
@@ -3663,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="11">
         <v>0</v>
@@ -3672,75 +3717,65 @@
         <v>0</v>
       </c>
       <c r="Q29" s="16">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R29" s="17"/>
-      <c r="S29" s="11">
-        <v>3</v>
-      </c>
+      <c r="S29" s="17"/>
       <c r="T29" s="11">
-        <v>4</v>
-      </c>
-      <c r="U29" s="11">
-        <v>0</v>
-      </c>
-      <c r="V29" s="11">
-        <v>78</v>
-      </c>
-      <c r="W29" s="18">
-        <v>45506</v>
-      </c>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="19">
-        <v>19.5</v>
-      </c>
-      <c r="Z29" s="17">
-        <v>8</v>
-      </c>
-      <c r="AA29" s="20">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="20"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
+      <c r="AE29" s="20">
+        <v>1</v>
+      </c>
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
       <c r="AH29" s="15" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>4188251</v>
-      </c>
-      <c r="B30" s="14"/>
+        <v>27378071</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D30" s="11">
-        <v>9699945464</v>
+        <v>9819153558</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J30" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K30" s="11">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L30" s="11">
         <v>0</v>
@@ -3749,178 +3784,166 @@
         <v>0</v>
       </c>
       <c r="N30" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O30" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="16">
-        <v>0.8</v>
+        <v>11.5</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T30" s="11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="U30" s="11">
         <v>0</v>
       </c>
       <c r="V30" s="11">
-        <v>159</v>
-      </c>
-      <c r="W30" s="18">
-        <v>45324</v>
+        <v>10</v>
+      </c>
+      <c r="W30" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="X30" s="11"/>
       <c r="Y30" s="19">
-        <v>12.23</v>
-      </c>
-      <c r="Z30" s="16">
-        <v>8.67</v>
+        <v>3.33</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>0</v>
       </c>
       <c r="AA30" s="20">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB30" s="16"/>
       <c r="AC30" s="20"/>
       <c r="AD30" s="20"/>
       <c r="AE30" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="15" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="24">
-        <v>33634288</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="24">
-        <v>8655613364</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="26" t="s">
+    <row r="31" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>27592031</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="35">
+        <v>9930129547</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="24">
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="24">
-        <v>0</v>
-      </c>
-      <c r="N31" s="24">
-        <v>0</v>
-      </c>
-      <c r="O31" s="24">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="24">
-        <v>0</v>
-      </c>
-      <c r="R31" s="24">
-        <v>0</v>
-      </c>
-      <c r="S31" s="24">
-        <v>0</v>
-      </c>
-      <c r="T31" s="24">
-        <v>0</v>
-      </c>
-      <c r="U31" s="24">
-        <v>0</v>
-      </c>
-      <c r="V31" s="24">
-        <v>0</v>
-      </c>
-      <c r="W31" s="24">
-        <v>0</v>
-      </c>
-      <c r="X31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="27" t="s">
-        <v>140</v>
+      <c r="H31" s="39"/>
+      <c r="I31" s="35">
+        <v>15</v>
+      </c>
+      <c r="J31" s="35">
+        <v>14</v>
+      </c>
+      <c r="K31" s="35">
+        <v>130</v>
+      </c>
+      <c r="L31" s="35">
+        <v>0</v>
+      </c>
+      <c r="M31" s="35">
+        <v>1</v>
+      </c>
+      <c r="N31" s="35">
+        <v>34</v>
+      </c>
+      <c r="O31" s="35">
+        <v>5</v>
+      </c>
+      <c r="P31" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="R31" s="41"/>
+      <c r="S31" s="35">
+        <v>3</v>
+      </c>
+      <c r="T31" s="35">
+        <v>3</v>
+      </c>
+      <c r="U31" s="35">
+        <v>0</v>
+      </c>
+      <c r="V31" s="35">
+        <v>35</v>
+      </c>
+      <c r="W31" s="42">
+        <v>45627</v>
+      </c>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="43">
+        <v>8.33</v>
+      </c>
+      <c r="Z31" s="41">
+        <v>18</v>
+      </c>
+      <c r="AA31" s="44">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="44">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
-        <v>33914032</v>
+        <v>33613925</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D32" s="24">
-        <v>7021345048</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="27" t="s">
+        <v>8976608320</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="24">
@@ -3950,9 +3973,7 @@
       <c r="Q32" s="24">
         <v>0</v>
       </c>
-      <c r="R32" s="24">
-        <v>0</v>
-      </c>
+      <c r="R32" s="24"/>
       <c r="S32" s="24">
         <v>0</v>
       </c>
@@ -3999,372 +4020,406 @@
         <v>0</v>
       </c>
       <c r="AH32" s="27" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>11397567</v>
+        <v>33619223</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D33" s="11">
-        <v>8657424691</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>38</v>
+        <v>9987572457</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="11">
+        <v>47</v>
+      </c>
+      <c r="J33" s="11">
         <v>39</v>
       </c>
-      <c r="J33" s="11">
-        <v>17</v>
-      </c>
-      <c r="K33" s="11">
-        <v>62</v>
+      <c r="K33" s="17">
+        <v>212</v>
       </c>
       <c r="L33" s="11">
         <v>0</v>
       </c>
       <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>28</v>
-      </c>
-      <c r="O33" s="11">
-        <v>2</v>
-      </c>
-      <c r="P33" s="11">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N33" s="17">
+        <v>37</v>
+      </c>
+      <c r="O33" s="17">
+        <v>4</v>
+      </c>
+      <c r="P33" s="17">
+        <v>24</v>
       </c>
       <c r="Q33" s="16">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
       <c r="R33" s="17"/>
-      <c r="S33" s="11">
-        <v>23</v>
+      <c r="S33" s="17">
+        <v>13</v>
       </c>
       <c r="T33" s="11">
-        <v>29</v>
-      </c>
-      <c r="U33" s="11">
-        <v>1</v>
-      </c>
-      <c r="V33" s="11">
-        <v>288</v>
-      </c>
-      <c r="W33" s="18">
-        <v>45324</v>
-      </c>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="19">
-        <v>9.93</v>
-      </c>
-      <c r="Z33" s="16">
-        <v>7.57</v>
+        <v>26</v>
+      </c>
+      <c r="U33" s="17">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <v>289</v>
+      </c>
+      <c r="W33" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="16">
+        <v>11.12</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>12</v>
       </c>
       <c r="AA33" s="20">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="AB33" s="16"/>
       <c r="AC33" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD33" s="20"/>
       <c r="AE33" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="AF33" s="20">
+        <v>2</v>
+      </c>
       <c r="AG33" s="20"/>
       <c r="AH33" s="15" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="11">
-        <v>3986537</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="11">
-        <v>7977327175</v>
-      </c>
-      <c r="E34" s="14" t="s">
+    <row r="34" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>33634288</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="34">
+        <v>8655613364</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>0</v>
+      </c>
+      <c r="R34" s="34">
+        <v>0</v>
+      </c>
+      <c r="S34" s="34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="34">
+        <v>0</v>
+      </c>
+      <c r="U34" s="34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="34">
+        <v>0</v>
+      </c>
+      <c r="W34" s="34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>33636223</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="34">
+        <v>8356037560</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="11">
-        <v>45</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="H35" s="38"/>
+      <c r="I35" s="34">
+        <v>0</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="34">
+        <v>0</v>
+      </c>
+      <c r="L35" s="34">
+        <v>0</v>
+      </c>
+      <c r="M35" s="34">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+      <c r="O35" s="34">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="34">
+        <v>0</v>
+      </c>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34">
+        <v>0</v>
+      </c>
+      <c r="T35" s="34">
+        <v>0</v>
+      </c>
+      <c r="U35" s="34">
+        <v>0</v>
+      </c>
+      <c r="V35" s="34">
+        <v>0</v>
+      </c>
+      <c r="W35" s="34">
+        <v>0</v>
+      </c>
+      <c r="X35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>33914032</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="34">
+        <v>7021345048</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="11">
-        <v>475</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>4</v>
-      </c>
-      <c r="N34" s="11">
-        <v>41</v>
-      </c>
-      <c r="O34" s="11">
-        <v>15</v>
-      </c>
-      <c r="P34" s="11">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="16">
-        <v>13.97</v>
-      </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="11">
-        <v>16</v>
-      </c>
-      <c r="T34" s="11">
-        <v>21</v>
-      </c>
-      <c r="U34" s="11">
-        <v>0</v>
-      </c>
-      <c r="V34" s="11">
-        <v>273</v>
-      </c>
-      <c r="W34" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="X34" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="19">
-        <v>12.04</v>
-      </c>
-      <c r="Z34" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="AA34" s="20">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="20">
-        <v>16</v>
-      </c>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="15" t="s">
-        <v>150</v>
+      <c r="G36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="34">
+        <v>0</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="34">
+        <v>0</v>
+      </c>
+      <c r="L36" s="34">
+        <v>0</v>
+      </c>
+      <c r="M36" s="34">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+      <c r="O36" s="34">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="34">
+        <v>0</v>
+      </c>
+      <c r="R36" s="34">
+        <v>0</v>
+      </c>
+      <c r="S36" s="34">
+        <v>0</v>
+      </c>
+      <c r="T36" s="34">
+        <v>0</v>
+      </c>
+      <c r="U36" s="34">
+        <v>0</v>
+      </c>
+      <c r="V36" s="34">
+        <v>0</v>
+      </c>
+      <c r="W36" s="34">
+        <v>0</v>
+      </c>
+      <c r="X36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="11">
-        <v>11630439</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="11">
-        <v>8369057760</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="11">
-        <v>12</v>
-      </c>
-      <c r="J35" s="11">
-        <v>6</v>
-      </c>
-      <c r="K35" s="17">
-        <v>21</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <v>8</v>
-      </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17">
-        <v>1</v>
-      </c>
-      <c r="T35" s="11">
-        <v>4</v>
-      </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17">
-        <v>42</v>
-      </c>
-      <c r="W35" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="16">
-        <v>10.5</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>24</v>
-      </c>
-      <c r="AA35" s="20">
-        <v>9</v>
-      </c>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="20">
-        <v>3</v>
-      </c>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="11">
-        <v>12757896</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="11">
-        <v>8169934821</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="11">
-        <v>6</v>
-      </c>
-      <c r="J36" s="11">
-        <v>3</v>
-      </c>
-      <c r="K36" s="11">
-        <v>39</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <v>19</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-      <c r="P36" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="16">
-        <v>39</v>
-      </c>
-      <c r="R36" s="17"/>
-      <c r="S36" s="11">
-        <v>6</v>
-      </c>
-      <c r="T36" s="11">
-        <v>5</v>
-      </c>
-      <c r="U36" s="11">
-        <v>0</v>
-      </c>
-      <c r="V36" s="11">
-        <v>59</v>
-      </c>
-      <c r="W36" s="18">
-        <v>45414</v>
-      </c>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="19">
-        <v>11.8</v>
-      </c>
-      <c r="Z36" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="20">
-        <v>16</v>
-      </c>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="21"/>
       <c r="C37" s="29"/>
@@ -4401,6 +4456,25 @@
       <c r="AH37" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH36">
+      <sortCondition ref="A2:A36"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41A223E-9701-4F88-949C-B96549617C5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>